--- a/data/trans_camb/P68-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P68-Provincia-trans_camb.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-5.564698882202082</v>
+        <v>-4.675851965789414</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>5.149368350275332</v>
+        <v>4.529076424539944</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-22.44360894631629</v>
+        <v>-21.68501060188752</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-3.445899287751</v>
+        <v>-5.841458032371125</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>2.428776474179386</v>
+        <v>1.120294533074219</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-24.63403693174892</v>
+        <v>-26.03493838595374</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-1.18322547498518</v>
+        <v>-0.8337485359088903</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>7.031260732269192</v>
+        <v>6.877436674294772</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-20.16880603089301</v>
+        <v>-20.77129590687293</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>15.92405109191408</v>
+        <v>16.62480101443765</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>28.17095922029646</v>
+        <v>28.01317873871756</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-5.447951359832722</v>
+        <v>-4.371932957283517</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>22.95182146577805</v>
+        <v>22.7262725325118</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>28.68217996791082</v>
+        <v>29.1725273387883</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>-5.920329747570147</v>
+        <v>-6.844837431511391</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>16.13654813350056</v>
+        <v>16.37703895452997</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>24.86235323149778</v>
+        <v>25.27801945811298</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>-7.84887642591204</v>
+        <v>-8.283018980687118</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>0.6361583446977674</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>-0.5245692599792497</v>
+        <v>-0.5245692599792496</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>0.3394856091633566</v>
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.1924210499779333</v>
+        <v>-0.1549246991351611</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.1342820353754643</v>
+        <v>0.1474577978078476</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.7099382091687645</v>
+        <v>-0.6949742425682173</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.131006989470965</v>
+        <v>-0.1710298880383349</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.0599709270012854</v>
+        <v>0.02380904027728884</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.7316514988983014</v>
+        <v>-0.7440203852616005</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.04408885984919742</v>
+        <v>-0.03065101371687742</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.2326907205527512</v>
+        <v>0.2192629489349356</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.6733045299713449</v>
+        <v>-0.6893629130716006</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.7548863662581538</v>
+        <v>0.8237580940373501</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>1.327490937564754</v>
+        <v>1.377649704849051</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>-0.2526364916464146</v>
+        <v>-0.1962785862532936</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>1.084348443082859</v>
+        <v>1.127351988398749</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.455310608819322</v>
+        <v>1.445738535027524</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.3018356806234286</v>
+        <v>-0.3240748283168441</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.744378885638189</v>
+        <v>0.7236997428793783</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.161510599375292</v>
+        <v>1.148735083799438</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>-0.3642958819489977</v>
+        <v>-0.3778331031829991</v>
       </c>
     </row>
     <row r="10">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-3.995277293774179</v>
+        <v>-3.721363386979371</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>11.99343630424588</v>
+        <v>11.16739691340686</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-14.23650696035358</v>
+        <v>-14.01396314438995</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-7.055923994316526</v>
+        <v>-7.387643856534694</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.9866020398730335</v>
+        <v>1.525500345374817</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-6.960265060891066</v>
+        <v>-6.731706426310778</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-2.490893252488452</v>
+        <v>-2.147149203079678</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>10.39723574474362</v>
+        <v>11.14338479856431</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-8.52590302763036</v>
+        <v>-8.737511919972022</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>15.07004900447651</v>
+        <v>16.52007282210509</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>31.34548047208838</v>
+        <v>31.16764606197638</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3.315940851313458</v>
+        <v>3.889712415975565</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>15.8541664229693</v>
+        <v>15.66565304216785</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>22.92857412253201</v>
+        <v>25.45160047794225</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>12.50289213221432</v>
+        <v>13.20835035728472</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>12.02377090990542</v>
+        <v>11.86527549116622</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>25.60954198897544</v>
+        <v>25.86095444389676</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>3.987573720750377</v>
+        <v>4.515277238055558</v>
       </c>
     </row>
     <row r="13">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.1472477508532226</v>
+        <v>-0.113228172833242</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.3734933036267249</v>
+        <v>0.370066081855682</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.4606802059927007</v>
+        <v>-0.4643829773325462</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.243259478501965</v>
+        <v>-0.2487330561062511</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.02807037348624731</v>
+        <v>0.06055064867489033</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.2277244810087537</v>
+        <v>-0.2240589929003707</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.09305952501330095</v>
+        <v>-0.08032393984199919</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.3932418160943541</v>
+        <v>0.376008289238242</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.2985900863718767</v>
+        <v>-0.3014501886318299</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.6410004131113965</v>
+        <v>0.7261239261525834</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>1.391686438566043</v>
+        <v>1.393167091307657</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.1555543554533815</v>
+        <v>0.1905537899486764</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.786727421773562</v>
+        <v>0.8564330064025887</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.216223644855813</v>
+        <v>1.457734386536375</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.6223019031429207</v>
+        <v>0.7076783969396162</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.5220275703780877</v>
+        <v>0.5184748528920521</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>1.169966923660016</v>
+        <v>1.120068177871751</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.1759909588707974</v>
+        <v>0.1936260989270078</v>
       </c>
     </row>
     <row r="16">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-10.94617905250282</v>
+        <v>-12.25500977768926</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-11.75009203466745</v>
+        <v>-12.56759259151676</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2.775918388683045</v>
+        <v>2.910132047978424</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-14.13326131345191</v>
+        <v>-14.94010620113216</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-19.46875989561677</v>
+        <v>-19.17058829585064</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>2.465179147856964</v>
+        <v>3.379745705156016</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-9.460232646440584</v>
+        <v>-9.63737148876212</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-12.64112775254791</v>
+        <v>-12.80150536335407</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>6.115748299019579</v>
+        <v>6.092290557384146</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>5.539568423818273</v>
+        <v>5.821568017283293</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>5.366490339041112</v>
+        <v>5.601727615127827</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>22.53382299786928</v>
+        <v>22.24229176627864</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>11.14101521600316</v>
+        <v>11.01149797094116</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>3.977169302854271</v>
+        <v>2.848108345757063</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>25.8380099379234</v>
+        <v>25.46072587245759</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>5.121764566816864</v>
+        <v>4.460964683971447</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>1.756762659207144</v>
+        <v>1.101211067453206</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>21.65000622188689</v>
+        <v>21.13631574380091</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>-0.1695550397474624</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>0.5939942512406786</v>
+        <v>0.5939942512406784</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>-0.06095120643741491</v>
@@ -1197,7 +1197,7 @@
         <v>-0.2441748281609446</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>0.6340458268793329</v>
+        <v>0.6340458268793331</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.4622697157567418</v>
+        <v>-0.4755930095677521</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.4829913726954028</v>
+        <v>-0.5022308849210835</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.09133880520645904</v>
+        <v>0.1175887597248718</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.5093563160705356</v>
+        <v>-0.5289374873431545</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.6579036947755912</v>
+        <v>-0.6555173605071589</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.06875676633581702</v>
+        <v>0.09799228949940786</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.3813068232187996</v>
+        <v>-0.3837844776440485</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.4999475591116824</v>
+        <v>-0.5107871211404532</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.2271489399502765</v>
+        <v>0.2533837814662447</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.3224657906394073</v>
+        <v>0.347790789597581</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.3301436025513313</v>
+        <v>0.3745723923599701</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>1.353050956289324</v>
+        <v>1.39271156552916</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.677309890533336</v>
+        <v>0.6267244909189233</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.2976772182155874</v>
+        <v>0.1673199826486689</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>1.585337607878953</v>
+        <v>1.414781064580901</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3237178526120057</v>
+        <v>0.239148431896394</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.116373078821023</v>
+        <v>0.06365118495843922</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>1.195468193882176</v>
+        <v>1.199606059367941</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>2.752358221958934</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>-0.5484538287308272</v>
+        <v>-0.5484538287308327</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>11.96424602448494</v>
@@ -1306,7 +1306,7 @@
         <v>9.797864143887264</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>4.812227835542998</v>
+        <v>4.812227835543004</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-3.746230037087645</v>
+        <v>-2.936164851130681</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-7.250294195619568</v>
+        <v>-7.305032721183291</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-11.52685635832841</v>
+        <v>-9.765238868457764</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.6380465947008485</v>
+        <v>1.644961287874151</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>8.348517364008892</v>
+        <v>9.210695085694757</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>3.757027354315654</v>
+        <v>2.057816289122398</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.994455337325632</v>
+        <v>1.241803933281547</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.9510157211124972</v>
+        <v>1.488679116806675</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-2.474522024877583</v>
+        <v>-2.24814849723663</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>16.93762309444244</v>
+        <v>17.18199160099818</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>13.10755512873144</v>
+        <v>13.50222851516456</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>9.136071563656282</v>
+        <v>10.82104720170472</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>23.13907684231237</v>
+        <v>23.57468109707259</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>33.37886493231749</v>
+        <v>35.09271627970642</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>21.83763714089337</v>
+        <v>21.37901323091704</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>16.21165199151013</v>
+        <v>15.7197966425539</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>17.60262287209268</v>
+        <v>18.06432370706826</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>11.73802627368791</v>
+        <v>11.80575825323632</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>0.1051013702687657</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>-0.02094322187746859</v>
+        <v>-0.0209432218774688</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0.70939242816934</v>
@@ -1402,7 +1402,7 @@
         <v>1.219297386091316</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.759859233420117</v>
+        <v>0.7598592334201173</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>0.378093663330327</v>
@@ -1411,7 +1411,7 @@
         <v>0.4320895070639738</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.2122210639791897</v>
+        <v>0.2122210639791899</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.1319362181128972</v>
+        <v>-0.1011103961202143</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.2530676429750903</v>
+        <v>-0.2556995737794333</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.3916540158277596</v>
+        <v>-0.3339441003994134</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.03862568245296985</v>
+        <v>0.03968804224240438</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.3343096674209505</v>
+        <v>0.3932246342730605</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1700686299813947</v>
+        <v>0.09893205368877439</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.03464172115080079</v>
+        <v>0.05266880333459062</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.03447430724858576</v>
+        <v>0.05928366207349201</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.09339280167397929</v>
+        <v>-0.08518711841708712</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.7467898964197628</v>
+        <v>0.7937885989576857</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.6035903581285711</v>
+        <v>0.6196902069101498</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.4122748894857471</v>
+        <v>0.4966513953243898</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>1.991994599419415</v>
+        <v>1.898642581058153</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>2.600373754744832</v>
+        <v>2.8300098171018</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>1.83491603147348</v>
+        <v>1.768774793985372</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.8220818445170088</v>
+        <v>0.7933428740275805</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.8825095330134025</v>
+        <v>0.9118290755910072</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.6181465711513914</v>
+        <v>0.6116198500062926</v>
       </c>
     </row>
     <row r="28">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-12.37082765244747</v>
+        <v>-12.06903263710372</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-14.37984916731</v>
+        <v>-13.47233691630999</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-15.2624883760769</v>
+        <v>-14.01902352863398</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-9.331453400604966</v>
+        <v>-9.463312137886009</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-17.12978377171296</v>
+        <v>-17.63340410194784</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-15.79831539399743</v>
+        <v>-15.89111080866801</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-7.284060932927053</v>
+        <v>-7.942848995705952</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-12.99672992061442</v>
+        <v>-13.44596718588078</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-12.66551984666919</v>
+        <v>-12.72096410819158</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>10.91339108055715</v>
+        <v>12.02570563247539</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>9.89203998974841</v>
+        <v>9.93523967130605</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>4.119945377890472</v>
+        <v>4.145710525791201</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>21.8120721403759</v>
+        <v>22.15307941496558</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>8.116141899402381</v>
+        <v>8.421515948925022</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>6.089190326886603</v>
+        <v>6.617439797030459</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>11.73508742472992</v>
+        <v>10.9745222816146</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>5.613403805280318</v>
+        <v>4.661348230107905</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>1.598547777811378</v>
+        <v>1.839087770675332</v>
       </c>
     </row>
     <row r="31">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.4736194024419986</v>
+        <v>-0.4846154255777343</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.5499039726680757</v>
+        <v>-0.5370438433173477</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.5610599729272079</v>
+        <v>-0.5155908381643147</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.4465035129595759</v>
+        <v>-0.4940061911205809</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.785540688825479</v>
+        <v>-0.7942207999615355</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.6340821554687568</v>
+        <v>-0.6343097195659382</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.3285141202304064</v>
+        <v>-0.3497709801515757</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.5625733318097997</v>
+        <v>-0.5693098836462108</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.5267185754230481</v>
+        <v>-0.5286075134403894</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.6791359226210328</v>
+        <v>0.7680348657027926</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.6396519341349584</v>
+        <v>0.6741203455922014</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.2767911485157225</v>
+        <v>0.2827197880120367</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>3.315422421930568</v>
+        <v>2.973798640438799</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>1.323470318543071</v>
+        <v>1.407800749687052</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.9667473353180914</v>
+        <v>1.005489459147821</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.8504707515858662</v>
+        <v>0.7412181684177218</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.4059582973337997</v>
+        <v>0.3304901144997474</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.1119275815949135</v>
+        <v>0.1282048315620568</v>
       </c>
     </row>
     <row r="34">
@@ -1716,7 +1716,7 @@
         <v>-6.092493851755165</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>-2.590261871357785</v>
+        <v>-2.59026187135778</v>
       </c>
       <c r="F34" s="5" t="n">
         <v>10.07775776495444</v>
@@ -1725,7 +1725,7 @@
         <v>-7.555740404544061</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>17.46753770753574</v>
+        <v>17.46753770753575</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>10.70397114667756</v>
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-2.442621118798547</v>
+        <v>-1.807890860186008</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-17.0274756643927</v>
+        <v>-16.24156431012122</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-12.77285996494393</v>
+        <v>-13.36277493007583</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-3.80069123818281</v>
+        <v>-4.870675430625366</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-19.09443042646628</v>
+        <v>-18.24062287415777</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>4.974201977863315</v>
+        <v>5.431347595103277</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>2.283266710612679</v>
+        <v>1.420624284593431</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-15.93796209160858</v>
+        <v>-15.65732245011839</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-3.376648101968142</v>
+        <v>-2.469013556538526</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>22.64267770275851</v>
+        <v>23.20660605698652</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>4.890142199424853</v>
+        <v>5.782470383098656</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>8.317893970798265</v>
+        <v>6.640930789366295</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>25.85174936725891</v>
+        <v>24.67628282363389</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>2.355523547344299</v>
+        <v>2.807133959109922</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>27.66630366669055</v>
+        <v>29.19068579084081</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>19.97934765207129</v>
+        <v>20.12191663668277</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>1.016407583826181</v>
+        <v>-0.02244306944461609</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>11.53610258062832</v>
+        <v>12.30548128728854</v>
       </c>
     </row>
     <row r="37">
@@ -1821,7 +1821,7 @@
         <v>-0.224341307429821</v>
       </c>
       <c r="E37" s="6" t="n">
-        <v>-0.09538011017255479</v>
+        <v>-0.09538011017255459</v>
       </c>
       <c r="F37" s="6" t="n">
         <v>0.5797267543534881</v>
@@ -1830,7 +1830,7 @@
         <v>-0.4346467700083327</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>1.004826587214824</v>
+        <v>1.004826587214825</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>0.4500158008549623</v>
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.08224564781572229</v>
+        <v>-0.05474982741356007</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.5368426981518334</v>
+        <v>-0.5021266425917588</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.3927776712651428</v>
+        <v>-0.4166490954732122</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.2001875260537454</v>
+        <v>-0.237383204769968</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.816501907893033</v>
+        <v>-0.7833846692409878</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.177893544073201</v>
+        <v>0.1737487879834144</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.0778987961160328</v>
+        <v>0.05362389430001138</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.5709111865732511</v>
+        <v>-0.5560737324177605</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>-0.1201932405611258</v>
+        <v>-0.09309321093088214</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>1.001184228191392</v>
+        <v>1.036357778060396</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.2283208764880533</v>
+        <v>0.2820827550130702</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>0.3771313864482763</v>
+        <v>0.3018015539796831</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>2.208124659538663</v>
+        <v>1.968180707112468</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.2172914185709889</v>
+        <v>0.3505744515121129</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>2.335476044777555</v>
+        <v>2.533879201271612</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.9775301692397982</v>
+        <v>1.008569894395018</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.05470842471818138</v>
+        <v>0.01901414304668254</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>0.5748216918188856</v>
+        <v>0.627172965059777</v>
       </c>
     </row>
     <row r="40">
@@ -1948,7 +1948,7 @@
         <v>-4.507529128626494</v>
       </c>
       <c r="K40" s="5" t="n">
-        <v>-2.863598002044601</v>
+        <v>-2.863598002044593</v>
       </c>
     </row>
     <row r="41">
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-12.87854408991011</v>
+        <v>-12.87438011134112</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-11.04030995577288</v>
+        <v>-10.46526826833604</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-11.61517593917138</v>
+        <v>-10.79774248036741</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-7.524479973637344</v>
+        <v>-8.479478471037904</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-13.27818148759247</v>
+        <v>-12.66871982740508</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>-9.077627189542092</v>
+        <v>-9.832190722389402</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>-9.175147411273942</v>
+        <v>-9.410255345867121</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-9.210911518174877</v>
+        <v>-9.502679608740864</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>-8.106494030425839</v>
+        <v>-7.959520821210569</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>1.723222172097784</v>
+        <v>0.9502142029529713</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>2.632853546720653</v>
+        <v>2.989792248420125</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>2.141229356176558</v>
+        <v>3.125102504488023</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>11.23630776297416</v>
+        <v>10.54002966924896</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>3.089263165785215</v>
+        <v>2.97304569060093</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>5.970323278681917</v>
+        <v>5.721819463867083</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>2.353937794379047</v>
+        <v>2.608986629350619</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>0.8481779374430046</v>
+        <v>0.5926334100623812</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>2.075593353682143</v>
+        <v>2.545825779084988</v>
       </c>
     </row>
     <row r="43">
@@ -2053,7 +2053,7 @@
         <v>-0.1759930941333533</v>
       </c>
       <c r="K43" s="6" t="n">
-        <v>-0.1118070362614574</v>
+        <v>-0.1118070362614571</v>
       </c>
     </row>
     <row r="44">
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.4363922241077877</v>
+        <v>-0.4326462272303572</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.3594405055549204</v>
+        <v>-0.3611750822260122</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.3819594259067471</v>
+        <v>-0.3523415851248837</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.2587317845539653</v>
+        <v>-0.2963452047134892</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.4481738043614085</v>
+        <v>-0.4324762438706288</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>-0.303786184732027</v>
+        <v>-0.3355506685596052</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>-0.3235175321680445</v>
+        <v>-0.3199237971386981</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.3308630912455761</v>
+        <v>-0.3362182232034313</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>-0.2849687036391784</v>
+        <v>-0.2747494513269851</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.08390223367832651</v>
+        <v>0.04389574236935592</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.124722902604733</v>
+        <v>0.1316345381304969</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>0.09743572380498412</v>
+        <v>0.1447661382740033</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.5641750665863414</v>
+        <v>0.5609675335270214</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.1703316443926774</v>
+        <v>0.1567962321886116</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.3139402285685676</v>
+        <v>0.313285021527686</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.1065447504857158</v>
+        <v>0.1130870904850469</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.04426540672483463</v>
+        <v>0.02525779951027418</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>0.08845186389918318</v>
+        <v>0.1099722292538258</v>
       </c>
     </row>
     <row r="46">
@@ -2144,7 +2144,7 @@
         <v>-11.75549642880623</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>-9.160375516829667</v>
+        <v>-9.160375516829664</v>
       </c>
       <c r="F46" s="5" t="n">
         <v>-8.972317881706109</v>
@@ -2153,7 +2153,7 @@
         <v>-11.81079134542001</v>
       </c>
       <c r="H46" s="5" t="n">
-        <v>-2.299767369291097</v>
+        <v>-2.299767369291092</v>
       </c>
       <c r="I46" s="5" t="n">
         <v>-10.18440309399003</v>
@@ -2173,31 +2173,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-15.32057827348642</v>
+        <v>-15.85285352459324</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-17.1118608111733</v>
+        <v>-17.42313999453951</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-14.79101104525816</v>
+        <v>-14.50550530714378</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>-15.88794617711963</v>
+        <v>-16.024087709968</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>-18.67503155866269</v>
+        <v>-18.51112357203335</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>-9.587642855059491</v>
+        <v>-8.890119832894094</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>-14.00064101920025</v>
+        <v>-14.5885137714489</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>-16.17403322467267</v>
+        <v>-15.83124716747268</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>-10.87463050993438</v>
+        <v>-10.48027487123513</v>
       </c>
     </row>
     <row r="48">
@@ -2208,31 +2208,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>-4.709319841513337</v>
+        <v>-5.091703725466215</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>-6.617436070621159</v>
+        <v>-6.423015082050341</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>-3.912753190708706</v>
+        <v>-3.87151618989221</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>-2.007168693756133</v>
+        <v>-2.143106195225013</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>-5.375895228960213</v>
+        <v>-5.195320030415943</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>4.113485417001657</v>
+        <v>4.029272472221004</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>-6.037141675473498</v>
+        <v>-5.979941872342986</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>-7.803268869210019</v>
+        <v>-7.636684043505318</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>-2.504545471707568</v>
+        <v>-2.422914580240823</v>
       </c>
     </row>
     <row r="49">
@@ -2249,7 +2249,7 @@
         <v>-0.4945074392407484</v>
       </c>
       <c r="E49" s="6" t="n">
-        <v>-0.385340922584168</v>
+        <v>-0.3853409225841679</v>
       </c>
       <c r="F49" s="6" t="n">
         <v>-0.4306849708590466</v>
@@ -2258,7 +2258,7 @@
         <v>-0.5669360352017802</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>-0.110392348497285</v>
+        <v>-0.1103923484972847</v>
       </c>
       <c r="I49" s="6" t="n">
         <v>-0.4473811890653841</v>
@@ -2278,31 +2278,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.5952364155291084</v>
+        <v>-0.5920885815049804</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.6510004036084915</v>
+        <v>-0.6452306835027138</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.5696611476709825</v>
+        <v>-0.5472505116924257</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>-0.6386905479707048</v>
+        <v>-0.6291910153550169</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>-0.7462033692086112</v>
+        <v>-0.7474383425916978</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>-0.390500166408199</v>
+        <v>-0.3517513527216165</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>-0.5699825302037816</v>
+        <v>-0.5731722299107284</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>-0.6531485193151032</v>
+        <v>-0.6426936926843778</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>-0.4365516235043644</v>
+        <v>-0.4278327123734491</v>
       </c>
     </row>
     <row r="51">
@@ -2313,31 +2313,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>-0.2218365604398514</v>
+        <v>-0.2341711148796146</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>-0.3079644458855987</v>
+        <v>-0.2935425487945401</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>-0.1880591949069282</v>
+        <v>-0.1824476525045455</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>-0.08416008210374744</v>
+        <v>-0.08756055081779299</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>-0.2844295566603689</v>
+        <v>-0.2894334123139343</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>0.2357022713534936</v>
+        <v>0.2546050101156304</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>-0.293477551818168</v>
+        <v>-0.2779707976007493</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>-0.3784028424908558</v>
+        <v>-0.3720456461756423</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>-0.1269778157563627</v>
+        <v>-0.1170089500246879</v>
       </c>
     </row>
     <row r="52">
@@ -2358,7 +2358,7 @@
         <v>-0.1786296277052513</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>-4.744447933474744</v>
+        <v>-4.744447933474741</v>
       </c>
       <c r="F52" s="5" t="n">
         <v>1.191461897926829</v>
@@ -2367,7 +2367,7 @@
         <v>-0.5623598191194429</v>
       </c>
       <c r="H52" s="5" t="n">
-        <v>1.588665353963242</v>
+        <v>1.588665353963239</v>
       </c>
       <c r="I52" s="5" t="n">
         <v>-0.6228294292481229</v>
@@ -2376,7 +2376,7 @@
         <v>-0.5817337922000093</v>
       </c>
       <c r="K52" s="5" t="n">
-        <v>-2.261303202538803</v>
+        <v>-2.261303202538806</v>
       </c>
     </row>
     <row r="53">
@@ -2387,31 +2387,31 @@
         </is>
       </c>
       <c r="C53" s="5" t="n">
-        <v>-4.498027604690147</v>
+        <v>-4.521685258020703</v>
       </c>
       <c r="D53" s="5" t="n">
-        <v>-3.401208965938255</v>
+        <v>-3.3055572936002</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>-7.685397270383568</v>
+        <v>-7.900614029270615</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>-3.039050241301536</v>
+        <v>-2.467397369093301</v>
       </c>
       <c r="G53" s="5" t="n">
-        <v>-4.631801759314878</v>
+        <v>-3.880461796596526</v>
       </c>
       <c r="H53" s="5" t="n">
-        <v>-1.724629367250231</v>
+        <v>-1.622115839389784</v>
       </c>
       <c r="I53" s="5" t="n">
-        <v>-3.109008055874723</v>
+        <v>-3.053078114973568</v>
       </c>
       <c r="J53" s="5" t="n">
-        <v>-2.905153114258415</v>
+        <v>-2.825840752118401</v>
       </c>
       <c r="K53" s="5" t="n">
-        <v>-4.35497379884845</v>
+        <v>-4.341904874323502</v>
       </c>
     </row>
     <row r="54">
@@ -2422,31 +2422,31 @@
         </is>
       </c>
       <c r="C54" s="5" t="n">
-        <v>1.876998807748121</v>
+        <v>1.38433610368157</v>
       </c>
       <c r="D54" s="5" t="n">
-        <v>2.935212762055873</v>
+        <v>2.719145433407454</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>-1.595789317248758</v>
+        <v>-1.979851936646794</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>4.974249893606736</v>
+        <v>5.097832329358718</v>
       </c>
       <c r="G54" s="5" t="n">
-        <v>3.104077296130781</v>
+        <v>3.172133949913142</v>
       </c>
       <c r="H54" s="5" t="n">
-        <v>4.52221109846598</v>
+        <v>4.555828461766763</v>
       </c>
       <c r="I54" s="5" t="n">
-        <v>1.847229051966027</v>
+        <v>1.838910909706842</v>
       </c>
       <c r="J54" s="5" t="n">
-        <v>1.726367782324941</v>
+        <v>2.008092309753096</v>
       </c>
       <c r="K54" s="5" t="n">
-        <v>0.009560716082666362</v>
+        <v>-0.06898602845561007</v>
       </c>
     </row>
     <row r="55">
@@ -2463,7 +2463,7 @@
         <v>-0.007154510181250977</v>
       </c>
       <c r="E55" s="6" t="n">
-        <v>-0.1900255936292383</v>
+        <v>-0.1900255936292382</v>
       </c>
       <c r="F55" s="6" t="n">
         <v>0.05509327969629094</v>
@@ -2472,7 +2472,7 @@
         <v>-0.02600355652045009</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.07345999468551957</v>
+        <v>0.07345999468551945</v>
       </c>
       <c r="I55" s="6" t="n">
         <v>-0.02617232223081001</v>
@@ -2481,7 +2481,7 @@
         <v>-0.02444541562589562</v>
       </c>
       <c r="K55" s="6" t="n">
-        <v>-0.09502369878355672</v>
+        <v>-0.09502369878355683</v>
       </c>
     </row>
     <row r="56">
@@ -2492,31 +2492,31 @@
         </is>
       </c>
       <c r="C56" s="6" t="n">
-        <v>-0.1747461198360314</v>
+        <v>-0.1737886595580145</v>
       </c>
       <c r="D56" s="6" t="n">
-        <v>-0.1272820001154015</v>
+        <v>-0.1262088022253282</v>
       </c>
       <c r="E56" s="6" t="n">
-        <v>-0.2943429557927717</v>
+        <v>-0.2956780996209284</v>
       </c>
       <c r="F56" s="6" t="n">
-        <v>-0.12972714333697</v>
+        <v>-0.1052375136216352</v>
       </c>
       <c r="G56" s="6" t="n">
-        <v>-0.1924681704710624</v>
+        <v>-0.1668786603009624</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>-0.07394088575127858</v>
+        <v>-0.06677395505462536</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>-0.1237619892310093</v>
+        <v>-0.1216909183188075</v>
       </c>
       <c r="J56" s="6" t="n">
-        <v>-0.1170552366923699</v>
+        <v>-0.113168376616832</v>
       </c>
       <c r="K56" s="6" t="n">
-        <v>-0.1753215036798544</v>
+        <v>-0.1754098792793797</v>
       </c>
     </row>
     <row r="57">
@@ -2527,31 +2527,31 @@
         </is>
       </c>
       <c r="C57" s="6" t="n">
-        <v>0.0788603360235781</v>
+        <v>0.05771317461410497</v>
       </c>
       <c r="D57" s="6" t="n">
-        <v>0.1253857827535876</v>
+        <v>0.1151041624099488</v>
       </c>
       <c r="E57" s="6" t="n">
-        <v>-0.07010958090549885</v>
+        <v>-0.08304010193079538</v>
       </c>
       <c r="F57" s="6" t="n">
-        <v>0.2444281489259325</v>
+        <v>0.2542705289009474</v>
       </c>
       <c r="G57" s="6" t="n">
-        <v>0.1576505261511578</v>
+        <v>0.1623221037189918</v>
       </c>
       <c r="H57" s="6" t="n">
-        <v>0.227612330734175</v>
+        <v>0.2360677025719432</v>
       </c>
       <c r="I57" s="6" t="n">
-        <v>0.0802009219486345</v>
+        <v>0.07889675251956675</v>
       </c>
       <c r="J57" s="6" t="n">
-        <v>0.0810794233963229</v>
+        <v>0.08760509576861079</v>
       </c>
       <c r="K57" s="6" t="n">
-        <v>0.0004978657488548463</v>
+        <v>-0.003900328480874841</v>
       </c>
     </row>
     <row r="58">
